--- a/biology/Médecine/Johann_Schröder/Johann_Schröder.xlsx
+++ b/biology/Médecine/Johann_Schröder/Johann_Schröder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Schr%C3%B6der</t>
+          <t>Johann_Schröder</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Schröder (1600, Bad Salzuflen - 1664, Francfort-sur-le-Main) est un médecin et pharmacologue allemand[1]. Il a publié de nombreux ouvrages sur la pharmacopée de son époque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Schröder (1600, Bad Salzuflen - 1664, Francfort-sur-le-Main) est un médecin et pharmacologue allemand. Il a publié de nombreux ouvrages sur la pharmacopée de son époque.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Schr%C3%B6der</t>
+          <t>Johann_Schröder</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Schröder voit le jour à Salzuflen en Rhénanie-du-Nord-Westphalie. En 1618, il fait ses humanités à Helmstedt en Basse-Saxe. Schröder poursuit ses études à l'Université de Rostock, où il se forme en médecine. En 1624, il se perfectionne à l'Université de Copenhague. Il entre ensuite au service du comte suédois Gustaf Horn. En 1630, il termine ses études de médecine à l'Université de Leyde aux Pays-Bas. Puis il retourne au service de Gustaf Horn, qui guerroie dans l'empire, notamment en Alsace. Après la Bataille de Nördlingen (1634), Schröder se trouve sans ressources. 
-Schröder s'installe alors à Francfort-sur-le-Main, comme médecin de ville. En 1641, il publie Pharmacopoeia medico-chymica sive thesaurus pharmacologicus, un ouvrage de référence sur la pharmacopée de cette époque. En 1649, dans un second ouvrage, il est le premier à décrire l'arsenic comme un élément. Sous son nom latinisé, Ioannes Scroderus, il publie alors deux méthodes pour sa préparation[2]. Ses ouvrages connurent par la suite de nombreuses rééditions. Homme de progrès, il sera en relation avec de nombreux scientifiques de son époque, Jakob Israel, Joel Langelott (1617-1680), Johann Christoph Eisenmenger (1592-1663) ou encore Samuel Duclos[3].
+Schröder s'installe alors à Francfort-sur-le-Main, comme médecin de ville. En 1641, il publie Pharmacopoeia medico-chymica sive thesaurus pharmacologicus, un ouvrage de référence sur la pharmacopée de cette époque. En 1649, dans un second ouvrage, il est le premier à décrire l'arsenic comme un élément. Sous son nom latinisé, Ioannes Scroderus, il publie alors deux méthodes pour sa préparation. Ses ouvrages connurent par la suite de nombreuses rééditions. Homme de progrès, il sera en relation avec de nombreux scientifiques de son époque, Jakob Israel, Joel Langelott (1617-1680), Johann Christoph Eisenmenger (1592-1663) ou encore Samuel Duclos.
 Johann Schröder décéda en 1664 à Francfort-sur-le-Main.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Schr%C3%B6der</t>
+          <t>Johann_Schröder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pharmacopoeia medico-chymica sive thesaurus pharmacologicus : quo composita quaeque celebriora, hinc mineralia, vegetabilia &amp; animalia chymico-medice describuntur, atque insuper principia physicae hermetico-hippocraticae candide exhibentur ; opus, non minus utile physicis quam medicis.  Gerlin, Ulmae 1644 (en ligne)
 Pharmacopoeia medico-chymica sive thesaurus pharmacologicus : quo composita quaeque celebriora, hinc mineralia, vegetabilia &amp; animalia chymico-medice describuntur, atque insuper principia physicae hermetico-hippocraticae candide exhibentur ; opus, editione tertia, plurimis in locis auctum ac emendatum. Gerlin, Ulmae 1649. (en ligne)
